--- a/team_specific_matrix/South Carolina St._A.xlsx
+++ b/team_specific_matrix/South Carolina St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2077922077922078</v>
+        <v>0.1980830670926517</v>
       </c>
       <c r="C2">
-        <v>0.4805194805194805</v>
+        <v>0.5079872204472844</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02597402597402598</v>
+        <v>0.02236421725239617</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1601731601731602</v>
+        <v>0.1533546325878594</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1255411255411255</v>
+        <v>0.1182108626198083</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03571428571428571</v>
+        <v>0.025</v>
       </c>
       <c r="C3">
-        <v>0.01785714285714286</v>
+        <v>0.0125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07142857142857142</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6696428571428571</v>
+        <v>0.70625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2053571428571428</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8571428571428571</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.04761904761904762</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08163265306122448</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0272108843537415</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2925170068027211</v>
+        <v>0.2841530054644809</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01360544217687075</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.217687074829932</v>
+        <v>0.2076502732240437</v>
       </c>
       <c r="R6">
-        <v>0.07482993197278912</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="S6">
-        <v>0.2925170068027211</v>
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1017964071856287</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005988023952095809</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04790419161676647</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1676646706586826</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02994011976047904</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1856287425149701</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R7">
-        <v>0.08383233532934131</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="S7">
-        <v>0.3772455089820359</v>
+        <v>0.3973214285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.112</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>0.05846153846153846</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.156</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.032</v>
+        <v>0.03384615384615385</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.128</v>
+        <v>0.1292307692307692</v>
       </c>
       <c r="R8">
-        <v>0.06</v>
+        <v>0.05230769230769231</v>
       </c>
       <c r="S8">
-        <v>0.432</v>
+        <v>0.4369230769230769</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.112</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.064</v>
+        <v>0.05590062111801242</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.128</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.016</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.168</v>
+        <v>0.1490683229813665</v>
       </c>
       <c r="R9">
-        <v>0.07199999999999999</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="S9">
-        <v>0.44</v>
+        <v>0.422360248447205</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1141176470588235</v>
+        <v>0.1206434316353887</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02235294117647059</v>
+        <v>0.01966041108132261</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06823529411764706</v>
+        <v>0.064343163538874</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1517647058823529</v>
+        <v>0.1492403932082216</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03764705882352941</v>
+        <v>0.03753351206434316</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2141176470588235</v>
+        <v>0.2082216264521894</v>
       </c>
       <c r="R10">
-        <v>0.05529411764705883</v>
+        <v>0.05898123324396783</v>
       </c>
       <c r="S10">
-        <v>0.3364705882352941</v>
+        <v>0.3413762287756926</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1762452107279693</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0842911877394636</v>
+        <v>0.0893371757925072</v>
       </c>
       <c r="K11">
-        <v>0.2145593869731801</v>
+        <v>0.2046109510086455</v>
       </c>
       <c r="L11">
-        <v>0.5134099616858238</v>
+        <v>0.5360230547550432</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01149425287356322</v>
+        <v>0.008645533141210375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7112676056338029</v>
+        <v>0.7397959183673469</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2042253521126761</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="K12">
-        <v>0.01408450704225352</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="L12">
-        <v>0.0352112676056338</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0352112676056338</v>
+        <v>0.02551020408163265</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03448275862068965</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G13">
-        <v>0.7931034482758621</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1724137931034483</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.025</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1875</v>
+        <v>0.1725888324873096</v>
       </c>
       <c r="I15">
-        <v>0.06875000000000001</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="J15">
-        <v>0.3125</v>
+        <v>0.3147208121827411</v>
       </c>
       <c r="K15">
-        <v>0.10625</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01875</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0625</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.21875</v>
+        <v>0.2436548223350254</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007874015748031496</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1259842519685039</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="I16">
-        <v>0.07086614173228346</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="J16">
-        <v>0.4960629921259843</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="K16">
-        <v>0.08661417322834646</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03149606299212598</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03149606299212598</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1496062992125984</v>
+        <v>0.1355932203389831</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01041666666666667</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1527777777777778</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.09065934065934066</v>
       </c>
       <c r="J17">
-        <v>0.4201388888888889</v>
+        <v>0.4313186813186813</v>
       </c>
       <c r="K17">
-        <v>0.1354166666666667</v>
+        <v>0.1456043956043956</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03125</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.125</v>
+        <v>0.1126373626373626</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01075268817204301</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1397849462365591</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I18">
-        <v>0.1182795698924731</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0.4086021505376344</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.1612903225806452</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01075268817204301</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01075268817204301</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1397849462365591</v>
+        <v>0.1092436974789916</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03666245259165613</v>
+        <v>0.03247373447946514</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1984829329962073</v>
+        <v>0.2015281757402101</v>
       </c>
       <c r="I19">
-        <v>0.08849557522123894</v>
+        <v>0.07927411652340019</v>
       </c>
       <c r="J19">
-        <v>0.3312262958280657</v>
+        <v>0.3371537726838587</v>
       </c>
       <c r="K19">
-        <v>0.1403286978508217</v>
+        <v>0.1442215854823305</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01517067003792667</v>
+        <v>0.0171919770773639</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0009551098376313276</v>
       </c>
       <c r="O19">
-        <v>0.08723135271807839</v>
+        <v>0.07927411652340019</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1024020227560051</v>
+        <v>0.10792741165234</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Carolina St._A.xlsx
+++ b/team_specific_matrix/South Carolina St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1980830670926517</v>
+        <v>0.187683284457478</v>
       </c>
       <c r="C2">
-        <v>0.5079872204472844</v>
+        <v>0.5249266862170088</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02236421725239617</v>
+        <v>0.02052785923753666</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1533546325878594</v>
+        <v>0.1466275659824047</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1182108626198083</v>
+        <v>0.1202346041055719</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.025</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C3">
-        <v>0.0125</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06875000000000001</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.70625</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1875</v>
+        <v>0.1722222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8148148148148148</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1111111111111111</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07650273224043716</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00546448087431694</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0273224043715847</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2841530054644809</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01092896174863388</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2076502732240437</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R6">
-        <v>0.06010928961748634</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="S6">
-        <v>0.3278688524590164</v>
+        <v>0.3110047846889952</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1071428571428571</v>
+        <v>0.108</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008928571428571428</v>
+        <v>0.008</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04464285714285714</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1651785714285714</v>
+        <v>0.168</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02232142857142857</v>
+        <v>0.02</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1785714285714286</v>
+        <v>0.168</v>
       </c>
       <c r="R7">
-        <v>0.07589285714285714</v>
+        <v>0.076</v>
       </c>
       <c r="S7">
-        <v>0.3973214285714285</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01538461538461539</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05846153846153846</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1538461538461539</v>
+        <v>0.1593406593406593</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03384615384615385</v>
+        <v>0.03021978021978022</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1292307692307692</v>
+        <v>0.1291208791208791</v>
       </c>
       <c r="R8">
-        <v>0.05230769230769231</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="S8">
-        <v>0.4369230769230769</v>
+        <v>0.4395604395604396</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1428571428571428</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006211180124223602</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05590062111801242</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0124223602484472</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1490683229813665</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="R9">
-        <v>0.06832298136645963</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="S9">
-        <v>0.422360248447205</v>
+        <v>0.4252873563218391</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1206434316353887</v>
+        <v>0.1178766588602654</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01966041108132261</v>
+        <v>0.01795472287275566</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.00078064012490242</v>
       </c>
       <c r="F10">
-        <v>0.064343163538874</v>
+        <v>0.0663544106167057</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1492403932082216</v>
+        <v>0.1491022638563622</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03753351206434316</v>
+        <v>0.03669008587041374</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2082216264521894</v>
+        <v>0.2076502732240437</v>
       </c>
       <c r="R10">
-        <v>0.05898123324396783</v>
+        <v>0.05776736924277908</v>
       </c>
       <c r="S10">
-        <v>0.3413762287756926</v>
+        <v>0.345823575331772</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1613832853025937</v>
+        <v>0.1609498680738786</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0893371757925072</v>
+        <v>0.09234828496042216</v>
       </c>
       <c r="K11">
-        <v>0.2046109510086455</v>
+        <v>0.2058047493403694</v>
       </c>
       <c r="L11">
-        <v>0.5360230547550432</v>
+        <v>0.5329815303430079</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008645533141210375</v>
+        <v>0.0079155672823219</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7397959183673469</v>
+        <v>0.755868544600939</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1836734693877551</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="K12">
-        <v>0.01530612244897959</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="L12">
-        <v>0.03571428571428571</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02551020408163265</v>
+        <v>0.02347417840375587</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02631578947368421</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G13">
-        <v>0.7105263157894737</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2368421052631579</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03045685279187817</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1725888324873096</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="I15">
-        <v>0.07106598984771574</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="J15">
-        <v>0.3147208121827411</v>
+        <v>0.3495575221238938</v>
       </c>
       <c r="K15">
-        <v>0.09644670050761421</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01522842639593909</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05583756345177665</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2436548223350254</v>
+        <v>0.2256637168141593</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01129943502824859</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1299435028248588</v>
+        <v>0.1377551020408163</v>
       </c>
       <c r="I16">
-        <v>0.07344632768361582</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.480225988700565</v>
+        <v>0.4795918367346939</v>
       </c>
       <c r="K16">
-        <v>0.1073446327683616</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02824858757062147</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03389830508474576</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1355932203389831</v>
+        <v>0.1377551020408163</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01098901098901099</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1428571428571428</v>
+        <v>0.148780487804878</v>
       </c>
       <c r="I17">
-        <v>0.09065934065934066</v>
+        <v>0.0951219512195122</v>
       </c>
       <c r="J17">
-        <v>0.4313186813186813</v>
+        <v>0.4219512195121951</v>
       </c>
       <c r="K17">
-        <v>0.1456043956043956</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02747252747252747</v>
+        <v>0.02682926829268293</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03846153846153846</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1126373626373626</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01680672268907563</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1176470588235294</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="I18">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.4285714285714285</v>
+        <v>0.4148148148148148</v>
       </c>
       <c r="K18">
-        <v>0.1596638655462185</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01680672268907563</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.008403361344537815</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1092436974789916</v>
+        <v>0.1037037037037037</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03247373447946514</v>
+        <v>0.02948609941027801</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2015281757402101</v>
+        <v>0.1929233361415333</v>
       </c>
       <c r="I19">
-        <v>0.07927411652340019</v>
+        <v>0.07413647851727043</v>
       </c>
       <c r="J19">
-        <v>0.3371537726838587</v>
+        <v>0.3521482729570345</v>
       </c>
       <c r="K19">
-        <v>0.1442215854823305</v>
+        <v>0.139005897219882</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0171919770773639</v>
+        <v>0.01853411962931761</v>
       </c>
       <c r="N19">
-        <v>0.0009551098376313276</v>
+        <v>0.0008424599831508003</v>
       </c>
       <c r="O19">
-        <v>0.07927411652340019</v>
+        <v>0.08424599831508003</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.10792741165234</v>
+        <v>0.1086773378264532</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Carolina St._A.xlsx
+++ b/team_specific_matrix/South Carolina St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.187683284457478</v>
+        <v>0.2058047493403694</v>
       </c>
       <c r="C2">
-        <v>0.5249266862170088</v>
+        <v>0.496042216358839</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02052785923753666</v>
+        <v>0.0237467018469657</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1466275659824047</v>
+        <v>0.1556728232189974</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1202346041055719</v>
+        <v>0.1187335092348285</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02222222222222222</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="C3">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07777777777777778</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7111111111111111</v>
+        <v>0.7248677248677249</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1722222222222222</v>
+        <v>0.164021164021164</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8275862068965517</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.103448275862069</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07177033492822966</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004784688995215311</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04784688995215311</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.277511961722488</v>
+        <v>0.2770562770562771</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009569377990430622</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2105263157894737</v>
+        <v>0.1991341991341991</v>
       </c>
       <c r="R6">
-        <v>0.06698564593301436</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S6">
-        <v>0.3110047846889952</v>
+        <v>0.329004329004329</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.108</v>
+        <v>0.1010830324909747</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008</v>
+        <v>0.01083032490974729</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.04693140794223827</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.168</v>
+        <v>0.1696750902527076</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02</v>
+        <v>0.01805054151624549</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.168</v>
+        <v>0.1624548736462094</v>
       </c>
       <c r="R7">
-        <v>0.076</v>
+        <v>0.08303249097472924</v>
       </c>
       <c r="S7">
-        <v>0.412</v>
+        <v>0.407942238267148</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1181318681318681</v>
+        <v>0.1138014527845036</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01648351648351648</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0576923076923077</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1593406593406593</v>
+        <v>0.1670702179176755</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03021978021978022</v>
+        <v>0.02663438256658596</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1291208791208791</v>
+        <v>0.1307506053268765</v>
       </c>
       <c r="R8">
-        <v>0.04945054945054945</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="S8">
-        <v>0.4395604395604396</v>
+        <v>0.4334140435835351</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.132183908045977</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005747126436781609</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05747126436781609</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1379310344827586</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01149425287356322</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1551724137931035</v>
+        <v>0.1581632653061225</v>
       </c>
       <c r="R9">
-        <v>0.07471264367816093</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="S9">
-        <v>0.4252873563218391</v>
+        <v>0.4234693877551021</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1178766588602654</v>
+        <v>0.1151178918169209</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01795472287275566</v>
+        <v>0.01803051317614424</v>
       </c>
       <c r="E10">
-        <v>0.00078064012490242</v>
+        <v>0.0006934812760055479</v>
       </c>
       <c r="F10">
-        <v>0.0663544106167057</v>
+        <v>0.06657420249653259</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1491022638563622</v>
+        <v>0.1484049930651872</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03669008587041374</v>
+        <v>0.03467406380027739</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2076502732240437</v>
+        <v>0.20249653259362</v>
       </c>
       <c r="R10">
-        <v>0.05776736924277908</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="S10">
-        <v>0.345823575331772</v>
+        <v>0.3557558945908461</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1609498680738786</v>
+        <v>0.1543942992874109</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09234828496042216</v>
+        <v>0.09501187648456057</v>
       </c>
       <c r="K11">
-        <v>0.2058047493403694</v>
+        <v>0.2019002375296912</v>
       </c>
       <c r="L11">
-        <v>0.5329815303430079</v>
+        <v>0.5415676959619953</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0079155672823219</v>
+        <v>0.007125890736342043</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.755868544600939</v>
+        <v>0.7468879668049793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1737089201877934</v>
+        <v>0.1784232365145228</v>
       </c>
       <c r="K12">
-        <v>0.01408450704225352</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="L12">
-        <v>0.03286384976525822</v>
+        <v>0.03734439834024896</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02347417840375587</v>
+        <v>0.02489626556016597</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02272727272727273</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G13">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2272727272727273</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02272727272727273</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02654867256637168</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1769911504424779</v>
+        <v>0.1726907630522088</v>
       </c>
       <c r="I15">
-        <v>0.06194690265486726</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="J15">
-        <v>0.3495575221238938</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="K15">
-        <v>0.08849557522123894</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01327433628318584</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05752212389380531</v>
+        <v>0.05622489959839357</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2256637168141593</v>
+        <v>0.2248995983935743</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01020408163265306</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1377551020408163</v>
+        <v>0.1330275229357798</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="J16">
-        <v>0.4795918367346939</v>
+        <v>0.481651376146789</v>
       </c>
       <c r="K16">
-        <v>0.1020408163265306</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03061224489795918</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03061224489795918</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1377551020408163</v>
+        <v>0.1376146788990826</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00975609756097561</v>
+        <v>0.01108647450110865</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.148780487804878</v>
+        <v>0.1485587583148559</v>
       </c>
       <c r="I17">
-        <v>0.0951219512195122</v>
+        <v>0.09977827050997783</v>
       </c>
       <c r="J17">
-        <v>0.4219512195121951</v>
+        <v>0.4235033259423504</v>
       </c>
       <c r="K17">
-        <v>0.1365853658536585</v>
+        <v>0.1352549889135255</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02682926829268293</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03902439024390244</v>
+        <v>0.03991130820399113</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1219512195121951</v>
+        <v>0.1175166297117517</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01481481481481482</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1259259259259259</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="I18">
-        <v>0.1333333333333333</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="J18">
-        <v>0.4148148148148148</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K18">
-        <v>0.1777777777777778</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01481481481481482</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01481481481481482</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1037037037037037</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02948609941027801</v>
+        <v>0.02686567164179104</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1929233361415333</v>
+        <v>0.1962686567164179</v>
       </c>
       <c r="I19">
-        <v>0.07413647851727043</v>
+        <v>0.07388059701492537</v>
       </c>
       <c r="J19">
-        <v>0.3521482729570345</v>
+        <v>0.3529850746268657</v>
       </c>
       <c r="K19">
-        <v>0.139005897219882</v>
+        <v>0.1432835820895522</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01853411962931761</v>
+        <v>0.01716417910447761</v>
       </c>
       <c r="N19">
-        <v>0.0008424599831508003</v>
+        <v>0.0007462686567164179</v>
       </c>
       <c r="O19">
-        <v>0.08424599831508003</v>
+        <v>0.07985074626865672</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1086773378264532</v>
+        <v>0.108955223880597</v>
       </c>
     </row>
   </sheetData>
